--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd34-Selp.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd34-Selp.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>250.7027893333334</v>
+        <v>260.1928506666666</v>
       </c>
       <c r="H2">
-        <v>752.108368</v>
+        <v>780.5785519999999</v>
       </c>
       <c r="I2">
-        <v>0.8058600807320525</v>
+        <v>0.8191301249666345</v>
       </c>
       <c r="J2">
-        <v>0.8058600807320525</v>
+        <v>0.8191301249666346</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>35.234003</v>
+        <v>44.40220133333333</v>
       </c>
       <c r="N2">
-        <v>105.702009</v>
+        <v>133.206604</v>
       </c>
       <c r="O2">
-        <v>0.9905698604484152</v>
+        <v>0.9893265572082102</v>
       </c>
       <c r="P2">
-        <v>0.9905698604484153</v>
+        <v>0.9893265572082101</v>
       </c>
       <c r="Q2">
-        <v>8833.262831479036</v>
+        <v>11553.13534079526</v>
       </c>
       <c r="R2">
-        <v>79499.36548331133</v>
+        <v>103978.2180671574</v>
       </c>
       <c r="S2">
-        <v>0.7982607077116979</v>
+        <v>0.8103871864387715</v>
       </c>
       <c r="T2">
-        <v>0.798260707711698</v>
+        <v>0.8103871864387715</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>250.7027893333334</v>
+        <v>260.1928506666666</v>
       </c>
       <c r="H3">
-        <v>752.108368</v>
+        <v>780.5785519999999</v>
       </c>
       <c r="I3">
-        <v>0.8058600807320525</v>
+        <v>0.8191301249666345</v>
       </c>
       <c r="J3">
-        <v>0.8058600807320525</v>
+        <v>0.8191301249666346</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,28 +620,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.1289146666666666</v>
+        <v>0.401961</v>
       </c>
       <c r="N3">
-        <v>0.386744</v>
+        <v>1.205883</v>
       </c>
       <c r="O3">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191794</v>
       </c>
       <c r="P3">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191792</v>
       </c>
       <c r="Q3">
-        <v>32.31926651931022</v>
+        <v>104.587378446824</v>
       </c>
       <c r="R3">
-        <v>290.873398673792</v>
+        <v>941.2864060214159</v>
       </c>
       <c r="S3">
-        <v>0.002920687525846863</v>
+        <v>0.007336213837748955</v>
       </c>
       <c r="T3">
-        <v>0.002920687525846863</v>
+        <v>0.007336213837748954</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>250.7027893333334</v>
+        <v>260.1928506666666</v>
       </c>
       <c r="H4">
-        <v>752.108368</v>
+        <v>780.5785519999999</v>
       </c>
       <c r="I4">
-        <v>0.8058600807320525</v>
+        <v>0.8191301249666345</v>
       </c>
       <c r="J4">
-        <v>0.8058600807320525</v>
+        <v>0.8191301249666346</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.20651</v>
+        <v>0.07707633333333333</v>
       </c>
       <c r="N4">
-        <v>0.61953</v>
+        <v>0.231229</v>
       </c>
       <c r="O4">
-        <v>0.005805828587833242</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="P4">
-        <v>0.005805828587833243</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="Q4">
-        <v>51.77263302522667</v>
+        <v>20.05471088893422</v>
       </c>
       <c r="R4">
-        <v>465.95369722704</v>
+        <v>180.492398000408</v>
       </c>
       <c r="S4">
-        <v>0.004678685494507755</v>
+        <v>0.001406724690114093</v>
       </c>
       <c r="T4">
-        <v>0.004678685494507755</v>
+        <v>0.001406724690114093</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>168.095093</v>
       </c>
       <c r="I5">
-        <v>0.1801085202334059</v>
+        <v>0.1763970508574364</v>
       </c>
       <c r="J5">
-        <v>0.1801085202334059</v>
+        <v>0.1763970508574364</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>35.234003</v>
+        <v>44.40220133333333</v>
       </c>
       <c r="N5">
-        <v>105.702009</v>
+        <v>133.206604</v>
       </c>
       <c r="O5">
-        <v>0.9905698604484152</v>
+        <v>0.9893265572082102</v>
       </c>
       <c r="P5">
-        <v>0.9905698604484153</v>
+        <v>0.9893265572082101</v>
       </c>
       <c r="Q5">
-        <v>1974.221003682426</v>
+        <v>2487.930720843797</v>
       </c>
       <c r="R5">
-        <v>17767.98903314184</v>
+        <v>22391.37648759417</v>
       </c>
       <c r="S5">
-        <v>0.1784100717531754</v>
+        <v>0.1745142870264692</v>
       </c>
       <c r="T5">
-        <v>0.1784100717531754</v>
+        <v>0.1745142870264691</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>168.095093</v>
       </c>
       <c r="I6">
-        <v>0.1801085202334059</v>
+        <v>0.1763970508574364</v>
       </c>
       <c r="J6">
-        <v>0.1801085202334059</v>
+        <v>0.1763970508574364</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1289146666666666</v>
+        <v>0.401961</v>
       </c>
       <c r="N6">
-        <v>0.386744</v>
+        <v>1.205883</v>
       </c>
       <c r="O6">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191794</v>
       </c>
       <c r="P6">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191792</v>
       </c>
       <c r="Q6">
-        <v>7.223307627465776</v>
+        <v>22.522557225791</v>
       </c>
       <c r="R6">
-        <v>65.00976864719199</v>
+        <v>202.703015032119</v>
       </c>
       <c r="S6">
-        <v>0.0006527692845469953</v>
+        <v>0.001579830171050226</v>
       </c>
       <c r="T6">
-        <v>0.0006527692845469954</v>
+        <v>0.001579830171050226</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>168.095093</v>
       </c>
       <c r="I7">
-        <v>0.1801085202334059</v>
+        <v>0.1763970508574364</v>
       </c>
       <c r="J7">
-        <v>0.1801085202334059</v>
+        <v>0.1763970508574364</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.20651</v>
+        <v>0.07707633333333333</v>
       </c>
       <c r="N7">
-        <v>0.61953</v>
+        <v>0.231229</v>
       </c>
       <c r="O7">
-        <v>0.005805828587833242</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="P7">
-        <v>0.005805828587833243</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="Q7">
-        <v>11.57110588514333</v>
+        <v>4.318717806588556</v>
       </c>
       <c r="R7">
-        <v>104.13995296629</v>
+        <v>38.868460259297</v>
       </c>
       <c r="S7">
-        <v>0.00104567919568345</v>
+        <v>0.0003029336599170671</v>
       </c>
       <c r="T7">
-        <v>0.00104567919568345</v>
+        <v>0.0003029336599170671</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3995106666666666</v>
+        <v>0.6130636666666667</v>
       </c>
       <c r="H8">
-        <v>1.198532</v>
+        <v>1.839191</v>
       </c>
       <c r="I8">
-        <v>0.001284188735791261</v>
+        <v>0.00193002581201784</v>
       </c>
       <c r="J8">
-        <v>0.001284188735791261</v>
+        <v>0.00193002581201784</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>35.234003</v>
+        <v>44.40220133333333</v>
       </c>
       <c r="N8">
-        <v>105.702009</v>
+        <v>133.206604</v>
       </c>
       <c r="O8">
-        <v>0.9905698604484152</v>
+        <v>0.9893265572082102</v>
       </c>
       <c r="P8">
-        <v>0.9905698604484153</v>
+        <v>0.9893265572082101</v>
       </c>
       <c r="Q8">
-        <v>14.07636002786533</v>
+        <v>27.22137635748489</v>
       </c>
       <c r="R8">
-        <v>126.687240250788</v>
+        <v>244.992387217364</v>
       </c>
       <c r="S8">
-        <v>0.001272078656802176</v>
+        <v>0.00190942579192659</v>
       </c>
       <c r="T8">
-        <v>0.001272078656802176</v>
+        <v>0.00190942579192659</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3995106666666666</v>
+        <v>0.6130636666666667</v>
       </c>
       <c r="H9">
-        <v>1.198532</v>
+        <v>1.839191</v>
       </c>
       <c r="I9">
-        <v>0.001284188735791261</v>
+        <v>0.00193002581201784</v>
       </c>
       <c r="J9">
-        <v>0.001284188735791261</v>
+        <v>0.00193002581201784</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1289146666666666</v>
+        <v>0.401961</v>
       </c>
       <c r="N9">
-        <v>0.386744</v>
+        <v>1.205883</v>
       </c>
       <c r="O9">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191794</v>
       </c>
       <c r="P9">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191792</v>
       </c>
       <c r="Q9">
-        <v>0.0515027844231111</v>
+        <v>0.246427684517</v>
       </c>
       <c r="R9">
-        <v>0.463525059808</v>
+        <v>2.217849160653</v>
       </c>
       <c r="S9">
-        <v>4.65429931465447E-06</v>
+        <v>1.728551012565272E-05</v>
       </c>
       <c r="T9">
-        <v>4.65429931465447E-06</v>
+        <v>1.728551012565272E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3995106666666666</v>
+        <v>0.6130636666666667</v>
       </c>
       <c r="H10">
-        <v>1.198532</v>
+        <v>1.839191</v>
       </c>
       <c r="I10">
-        <v>0.001284188735791261</v>
+        <v>0.00193002581201784</v>
       </c>
       <c r="J10">
-        <v>0.001284188735791261</v>
+        <v>0.00193002581201784</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.20651</v>
+        <v>0.07707633333333333</v>
       </c>
       <c r="N10">
-        <v>0.61953</v>
+        <v>0.231229</v>
       </c>
       <c r="O10">
-        <v>0.005805828587833242</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="P10">
-        <v>0.005805828587833243</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="Q10">
-        <v>0.08250294777333332</v>
+        <v>0.04725269952655555</v>
       </c>
       <c r="R10">
-        <v>0.74252652996</v>
+        <v>0.425274295739</v>
       </c>
       <c r="S10">
-        <v>7.45577967443033E-06</v>
+        <v>3.314509965597452E-06</v>
       </c>
       <c r="T10">
-        <v>7.455779674430333E-06</v>
+        <v>3.314509965597452E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.848924333333333</v>
+        <v>0.5097843333333333</v>
       </c>
       <c r="H11">
-        <v>11.546773</v>
+        <v>1.529353</v>
       </c>
       <c r="I11">
-        <v>0.01237199826232313</v>
+        <v>0.001604885390199778</v>
       </c>
       <c r="J11">
-        <v>0.01237199826232313</v>
+        <v>0.001604885390199778</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>35.234003</v>
+        <v>44.40220133333333</v>
       </c>
       <c r="N11">
-        <v>105.702009</v>
+        <v>133.206604</v>
       </c>
       <c r="O11">
-        <v>0.9905698604484152</v>
+        <v>0.9893265572082102</v>
       </c>
       <c r="P11">
-        <v>0.9905698604484153</v>
+        <v>0.9893265572082101</v>
       </c>
       <c r="Q11">
-        <v>135.6130115074397</v>
+        <v>22.63554660524577</v>
       </c>
       <c r="R11">
-        <v>1220.517103566957</v>
+        <v>203.719919447212</v>
       </c>
       <c r="S11">
-        <v>0.01225532859217746</v>
+        <v>0.001587755737800101</v>
       </c>
       <c r="T11">
-        <v>0.01225532859217746</v>
+        <v>0.001587755737800101</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.848924333333333</v>
+        <v>0.5097843333333333</v>
       </c>
       <c r="H12">
-        <v>11.546773</v>
+        <v>1.529353</v>
       </c>
       <c r="I12">
-        <v>0.01237199826232313</v>
+        <v>0.001604885390199778</v>
       </c>
       <c r="J12">
-        <v>0.01237199826232313</v>
+        <v>0.001604885390199778</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1289146666666666</v>
+        <v>0.401961</v>
       </c>
       <c r="N12">
-        <v>0.386744</v>
+        <v>1.205883</v>
       </c>
       <c r="O12">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191794</v>
       </c>
       <c r="P12">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191792</v>
       </c>
       <c r="Q12">
-        <v>0.4961827974568888</v>
+        <v>0.204913420411</v>
       </c>
       <c r="R12">
-        <v>4.465645177112</v>
+        <v>1.844220783699</v>
       </c>
       <c r="S12">
-        <v>4.483996894565246E-05</v>
+        <v>1.437351899133769E-05</v>
       </c>
       <c r="T12">
-        <v>4.483996894565248E-05</v>
+        <v>1.437351899133769E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.848924333333333</v>
+        <v>0.5097843333333333</v>
       </c>
       <c r="H13">
-        <v>11.546773</v>
+        <v>1.529353</v>
       </c>
       <c r="I13">
-        <v>0.01237199826232313</v>
+        <v>0.001604885390199778</v>
       </c>
       <c r="J13">
-        <v>0.01237199826232313</v>
+        <v>0.001604885390199778</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.20651</v>
+        <v>0.07707633333333333</v>
       </c>
       <c r="N13">
-        <v>0.61953</v>
+        <v>0.231229</v>
       </c>
       <c r="O13">
-        <v>0.005805828587833242</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="P13">
-        <v>0.005805828587833243</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="Q13">
-        <v>0.7948413640766666</v>
+        <v>0.03929230720411111</v>
       </c>
       <c r="R13">
-        <v>7.15357227669</v>
+        <v>0.353630764837</v>
       </c>
       <c r="S13">
-        <v>7.18297012000188E-05</v>
+        <v>2.756133408338971E-06</v>
       </c>
       <c r="T13">
-        <v>7.182970120001883E-05</v>
+        <v>2.756133408338971E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1167283333333333</v>
+        <v>0.2979236666666666</v>
       </c>
       <c r="H14">
-        <v>0.350185</v>
+        <v>0.893771</v>
       </c>
       <c r="I14">
-        <v>0.0003752120364271147</v>
+        <v>0.0009379129737112659</v>
       </c>
       <c r="J14">
-        <v>0.0003752120364271147</v>
+        <v>0.000937912973711266</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>35.234003</v>
+        <v>44.40220133333333</v>
       </c>
       <c r="N14">
-        <v>105.702009</v>
+        <v>133.206604</v>
       </c>
       <c r="O14">
-        <v>0.9905698604484152</v>
+        <v>0.9893265572082102</v>
       </c>
       <c r="P14">
-        <v>0.9905698604484153</v>
+        <v>0.9893265572082101</v>
       </c>
       <c r="Q14">
-        <v>4.112806446851667</v>
+        <v>13.22846662929822</v>
       </c>
       <c r="R14">
-        <v>37.015258021665</v>
+        <v>119.056199663684</v>
       </c>
       <c r="S14">
-        <v>0.0003716737345621727</v>
+        <v>0.0009279022132426812</v>
       </c>
       <c r="T14">
-        <v>0.0003716737345621727</v>
+        <v>0.0009279022132426812</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1167283333333333</v>
+        <v>0.2979236666666666</v>
       </c>
       <c r="H15">
-        <v>0.350185</v>
+        <v>0.893771</v>
       </c>
       <c r="I15">
-        <v>0.0003752120364271147</v>
+        <v>0.0009379129737112659</v>
       </c>
       <c r="J15">
-        <v>0.0003752120364271147</v>
+        <v>0.000937912973711266</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.1289146666666666</v>
+        <v>0.401961</v>
       </c>
       <c r="N15">
-        <v>0.386744</v>
+        <v>1.205883</v>
       </c>
       <c r="O15">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191794</v>
       </c>
       <c r="P15">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191792</v>
       </c>
       <c r="Q15">
-        <v>0.01504799418222222</v>
+        <v>0.119753694977</v>
       </c>
       <c r="R15">
-        <v>0.13543194764</v>
+        <v>1.077783254793</v>
       </c>
       <c r="S15">
-        <v>1.359885097354326E-06</v>
+        <v>8.400045275621052E-06</v>
       </c>
       <c r="T15">
-        <v>1.359885097354327E-06</v>
+        <v>8.400045275621051E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.2979236666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.893771</v>
+      </c>
+      <c r="I16">
+        <v>0.0009379129737112659</v>
+      </c>
+      <c r="J16">
+        <v>0.000937912973711266</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="L16">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G16">
-        <v>0.1167283333333333</v>
-      </c>
-      <c r="H16">
-        <v>0.350185</v>
-      </c>
-      <c r="I16">
-        <v>0.0003752120364271147</v>
-      </c>
-      <c r="J16">
-        <v>0.0003752120364271147</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M16">
-        <v>0.20651</v>
+        <v>0.07707633333333333</v>
       </c>
       <c r="N16">
-        <v>0.61953</v>
+        <v>0.231229</v>
       </c>
       <c r="O16">
-        <v>0.005805828587833242</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="P16">
-        <v>0.005805828587833243</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="Q16">
-        <v>0.02410556811666666</v>
+        <v>0.02296286383988889</v>
       </c>
       <c r="R16">
-        <v>0.21695011305</v>
+        <v>0.206665774559</v>
       </c>
       <c r="S16">
-        <v>2.17841676758767E-06</v>
+        <v>1.610715192963646E-06</v>
       </c>
       <c r="T16">
-        <v>2.17841676758767E-06</v>
+        <v>1.610715192963646E-06</v>
       </c>
     </row>
   </sheetData>
